--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1266542.110173242</v>
+        <v>1269812.494148109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>1134222.401358595</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10906243.87503102</v>
+        <v>10540613.55918102</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29.7114562490219</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>303.3589588852116</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.3139136866278</v>
+        <v>58.28185552386429</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>373.3886011363427</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>15.38185492767492</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189239</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677311</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>204.7158181704332</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>55.604189712132</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>102.2794790960066</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.3991884271821</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.281855523864</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.960420603604391</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161915776</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>35.41770597126713</v>
+        <v>4.960420603603757</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.16855850113233</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>142.3046100066275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670954</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>111.1889429204723</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>30.52836999699559</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>81.66954713026406</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>216.4795114578129</v>
+        <v>96.17404414013114</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>10.68616098663353</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>144.6567994006577</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>48.46659947429661</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>119.6760079449705</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>922.5820433455035</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>511.5961385558959</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>96.52368840089241</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>96.52368840089241</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>680.3679798527296</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248227</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>361.315157512487</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W4" t="n">
-        <v>541.6393785387522</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X4" t="n">
-        <v>313.6498276407349</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>862.0164446829693</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>950.1045973369974</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2424.744041450755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181855</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902786</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779428</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955497</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976393</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
         <v>809.015235706886</v>
@@ -4770,7 +4770,7 @@
         <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>884.2764146822271</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380157</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3016.315468845913</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3016.315468845913</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2663.546813575799</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.081055314719</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
         <v>809.015235706886</v>
@@ -4998,16 +4998,16 @@
         <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>666.2025176122986</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>438.2129667142813</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>217.4203875707512</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>98.82718891019857</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>896.4538830671058</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>668.4643321690885</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>447.6717530255584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>266.0232881953179</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>266.0232881953179</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>266.0232881953179</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101294</v>
+        <v>266.0232881953179</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>896.4538830671052</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>668.4643321690878</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>447.6717530255577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>580.0878324040893</v>
       </c>
       <c r="D19" t="n">
-        <v>776.466420735098</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>628.5533271527049</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>749.0240153319962</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="23">
@@ -5986,28 +5986,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6235,34 +6235,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389278</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1409.71880393925</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1120.643577283448</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>865.959089077561</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>865.959089077561</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>637.9695381795436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>417.1769590360135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>931.8788496770917</v>
       </c>
     </row>
     <row r="32">
@@ -6694,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>1978.396372297858</v>
+        <v>1343.410042178507</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1054.334815522705</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>799.6503273168181</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>799.6503273168181</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>571.6607764188008</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T37" t="n">
-        <v>2267.47159895366</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>483.5454251194088</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>483.5454251194088</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>558.987464580798</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>390.0512816528911</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925226</v>
+        <v>239.9346422405554</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925226</v>
+        <v>239.9346422405554</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925226</v>
+        <v>239.9346422405554</v>
       </c>
       <c r="G40" t="n">
-        <v>277.5052172074025</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7933860496006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>740.6359294110378</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>740.6359294110378</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>410.6659395582719</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1102.524153569002</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>813.1069835320418</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>592.3144043885117</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>135.3342922426195</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393007</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>110.0033420516641</v>
+        <v>140.4606274193275</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>118.44691451708</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>3.116438016303789</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.2291039219418</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>107.3957104316224</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>186.8770803302927</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>98.16243305167323</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9259388694754023</v>
+        <v>121.2314061871571</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819418</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>275.8368373499575</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>20.86733889161115</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>39.70888054695308</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>203.6710438495314</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>25.74504007796078</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585137</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942857.2448038029</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942857.2448038029</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>942857.2448038029</v>
+        <v>900719.5099585132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942857.2448038029</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.613891398</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913979</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140038</v>
+        <v>469940.613891398</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.613891398</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140038</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040524</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
-        <v>291094.3772531239</v>
+        <v>291094.3772531243</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.3772531242</v>
+        <v>291094.3772531241</v>
       </c>
       <c r="E6" t="n">
-        <v>41968.94892150459</v>
+        <v>42549.71551800547</v>
       </c>
       <c r="F6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253614</v>
       </c>
       <c r="G6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="I6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="J6" t="n">
-        <v>149850.2083315825</v>
+        <v>150430.9749280833</v>
       </c>
       <c r="K6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="L6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="M6" t="n">
-        <v>282326.3827933482</v>
+        <v>282907.149389849</v>
       </c>
       <c r="N6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253608</v>
       </c>
       <c r="O6" t="n">
-        <v>367381.41072886</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="P6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253609</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>11.86547352390405</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>82.87897977084202</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.27073966546695</v>
+        <v>160.3027978282305</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>9.345240527137889</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>366.5485151445869</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754767</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.86883518166155</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>326.3261803601298</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>148.7156928628953</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.43279175475524</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351642</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31621,7 +31621,7 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982882</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>472.9736279168691</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>361.1081696176606</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762699</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>330.3773834724247</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>222.5537898377864</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
